--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value104.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value104.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.206042618549781</v>
+        <v>2.667686462402344</v>
       </c>
       <c r="B1">
-        <v>2.439021707997239</v>
+        <v>2.444854974746704</v>
       </c>
       <c r="C1">
-        <v>5.362889357593652</v>
+        <v>2.075833320617676</v>
       </c>
       <c r="D1">
-        <v>1.549108834237458</v>
+        <v>1.5724858045578</v>
       </c>
       <c r="E1">
-        <v>0.7526794560090926</v>
+        <v>1.241879940032959</v>
       </c>
     </row>
   </sheetData>
